--- a/CATSMatlabTools/spYYMMDD-tag#.xlsx
+++ b/CATSMatlabTools/spYYMMDD-tag#.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Documents\Programs\MATLAB\Tagging\CATS Tools\CATSMatlabTools\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7050"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Whale Name (format SPYYMMDD-tag#</t>
   </si>
@@ -35,18 +35,12 @@
     <t>Time Difference (tag time + ___ hours = real time)</t>
   </si>
   <si>
-    <t>Useful in case the tags were set to the wrong time zone</t>
-  </si>
-  <si>
     <t>tagnum</t>
   </si>
   <si>
     <t>MM:SS.FF (FF = two digit frame number, .00 = first frame in a "second")</t>
   </si>
   <si>
-    <t>Record at least the first surfacing after tag deployment (start and end) and the times of any noticed tag slips (start to finish).  Try to record at least one, preferably two or more surfacings in each video.  If the tag slips, put the start and end time of the slip as Time1 and Time2 (can be the same).  If the tag has slipped by the start of the video, put 00:00 as Time2 (leave Time1 blank).  If there is no surfacing on the video, enter the video number and then see the notes for "manual" and "none" below.</t>
-  </si>
-  <si>
     <t>Video number</t>
   </si>
   <si>
@@ -56,23 +50,76 @@
     <t>Time2</t>
   </si>
   <si>
-    <t>If 'Manual' is entered, calibrate the video manually by some other means.  Enter the video time in Time1 like normal, but in Time2 enter the time from the data that corresponds to it.  Ideas for manual calibration: listen for when paddlewheel starts and compare to sensor data</t>
-  </si>
-  <si>
-    <t>spYYMMDD-tag#</t>
-  </si>
-  <si>
-    <t>Type ('Surface', 'Slip','None' or 'Manual')</t>
+    <t>Useful in case the tags were set to the wrong time, e.g. a computer from a different time zone</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Recording observed tag slips: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Put the start and end time of the slip as Time1 and Time2 (can be the same).  If the tag has slipped by the start of the video, put 00:00 as Time2 (leave Time1 blank).  </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Instructions if you need to calibrate the video based on surfacings (e.g. no starttimes or time stamps are recorded): </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Record at least the first surfacing after tag deployment (start and end) and the times of any noticed tag slips (start to finish).  Try to record at least one, preferably two or more surfacings in each video.  If a video is entirely underwater, record a video number, but put "none")</t>
+    </r>
+  </si>
+  <si>
+    <t>Annotation Type ('Slip', 'Surface', or 'None')</t>
+  </si>
+  <si>
+    <t>Example:</t>
+  </si>
+  <si>
+    <t>Slip</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="mm:ss.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,13 +127,32 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -101,14 +167,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -384,39 +466,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H140"/>
+  <dimension ref="A1:R140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="37.140625" customWidth="1"/>
-    <col min="2" max="2" width="9.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="37.109375" customWidth="1"/>
+    <col min="2" max="2" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="16" max="17" width="9.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" s="4"/>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>41.573999999999998</v>
-      </c>
-      <c r="C2">
-        <v>-69.584000000000003</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -424,454 +503,506 @@
         <v>0</v>
       </c>
       <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B4" s="4"/>
+    </row>
+    <row r="5" spans="1:18" ht="60.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
+      <c r="B6" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="C6" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="D6" s="3"/>
+      <c r="H6" t="s">
         <v>9</v>
       </c>
-      <c r="D6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>0</v>
-      </c>
-      <c r="B7" s="1">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C8" s="1"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C9" s="1"/>
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C10" s="1"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O12" t="s">
+        <v>5</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>7</v>
+      </c>
+      <c r="R12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O13">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.5740740740740741E-3</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>2.5995370370370369E-3</v>
+      </c>
+      <c r="R13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O14">
+        <v>1</v>
+      </c>
+      <c r="P14" s="1">
+        <v>6.7488425925925936E-3</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>6.7511574074074071E-3</v>
+      </c>
+      <c r="R14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="O15">
+        <v>5</v>
+      </c>
+      <c r="P15" s="1">
+        <v>7.0731828703703712E-3</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>7.0809027777777788E-3</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.3">
       <c r="C16" s="1"/>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C17" s="1"/>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C18" s="1"/>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C19" s="1"/>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C21" s="1"/>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C23" s="1"/>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C25" s="1"/>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C26" s="1"/>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C27" s="1"/>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C29" s="1"/>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C30" s="1"/>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C31" s="1"/>
     </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:7" x14ac:dyDescent="0.3">
       <c r="C32" s="1"/>
     </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C33" s="1"/>
     </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C34" s="1"/>
     </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C35" s="1"/>
     </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C36" s="1"/>
     </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C37" s="1"/>
     </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C38" s="1"/>
     </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C39" s="1"/>
     </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C40" s="1"/>
     </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C41" s="1"/>
     </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C42" s="1"/>
     </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C43" s="1"/>
     </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C44" s="1"/>
     </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C45" s="1"/>
     </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C46" s="1"/>
     </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C47" s="1"/>
     </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C48" s="1"/>
     </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C49" s="1"/>
     </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C50" s="1"/>
     </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C51" s="1"/>
     </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C52" s="1"/>
     </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C53" s="1"/>
     </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C54" s="1"/>
     </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C55" s="1"/>
     </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C56" s="1"/>
     </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C57" s="1"/>
     </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C58" s="1"/>
     </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C59" s="1"/>
     </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C61" s="1"/>
     </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C62" s="1"/>
     </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C63" s="1"/>
     </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C64" s="1"/>
     </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C65" s="1"/>
     </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C66" s="1"/>
     </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C67" s="1"/>
     </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C68" s="1"/>
     </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C69" s="1"/>
     </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C70" s="1"/>
     </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C71" s="1"/>
     </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C72" s="1"/>
     </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C73" s="1"/>
     </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C74" s="1"/>
     </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C75" s="1"/>
     </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C76" s="1"/>
     </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C77" s="1"/>
     </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C78" s="1"/>
     </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C79" s="1"/>
     </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C80" s="1"/>
     </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C81" s="1"/>
     </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C82" s="1"/>
     </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C83" s="1"/>
     </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C84" s="1"/>
     </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C85" s="1"/>
     </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C86" s="1"/>
     </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C87" s="1"/>
     </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C88" s="1"/>
     </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C89" s="1"/>
     </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C90" s="1"/>
     </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C91" s="1"/>
     </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C92" s="1"/>
     </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C93" s="1"/>
     </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C94" s="1"/>
     </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C95" s="1"/>
     </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C96" s="1"/>
     </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C97" s="1"/>
     </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C98" s="1"/>
     </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C99" s="1"/>
     </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C100" s="1"/>
     </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C101" s="1"/>
     </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C102" s="1"/>
     </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C103" s="1"/>
     </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C104" s="1"/>
     </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C105" s="1"/>
     </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C106" s="1"/>
     </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C107" s="1"/>
     </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C108" s="1"/>
     </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C109" s="1"/>
     </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C110" s="1"/>
     </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C111" s="1"/>
     </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C112" s="1"/>
     </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C113" s="1"/>
     </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C114" s="1"/>
     </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C115" s="1"/>
     </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C116" s="1"/>
     </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C117" s="1"/>
     </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C118" s="1"/>
     </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C119" s="1"/>
     </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C120" s="1"/>
     </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C121" s="1"/>
     </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C122" s="1"/>
     </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C123" s="1"/>
     </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C124" s="1"/>
     </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C125" s="1"/>
     </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C126" s="1"/>
     </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C127" s="1"/>
     </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C128" s="1"/>
     </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C129" s="1"/>
     </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C130" s="1"/>
     </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C131" s="1"/>
     </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C132" s="1"/>
     </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C133" s="1"/>
     </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C134" s="1"/>
     </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C135" s="1"/>
     </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C136" s="1"/>
     </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C137" s="1"/>
     </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C138" s="1"/>
     </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C139" s="1"/>
     </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:3" x14ac:dyDescent="0.3">
       <c r="C140" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:D6"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B2:C2">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(), 2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>